--- a/xlsx/约翰·密尔_intext.xlsx
+++ b/xlsx/约翰·密尔_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="485">
   <si>
     <t>约翰·密尔</t>
   </si>
@@ -26,64 +26,64 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
-  </si>
-  <si>
-    <t>政策_政策_政治學_约翰·密尔</t>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>政策_政策_政治学_约翰·密尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6</t>
   </si>
   <si>
-    <t>倫敦</t>
+    <t>伦敦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%B6%AD%E8%BE%B2</t>
   </si>
   <si>
-    <t>亞維農</t>
+    <t>亚维农</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/19%E4%B8%96%E7%B4%80%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>19世紀哲學</t>
+    <t>19世纪哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E9%A9%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>經驗主義</t>
+    <t>经验主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9F%E5%88%A9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>功利主義</t>
+    <t>功利主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治哲學</t>
+    <t>政治哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>倫理學</t>
+    <t>伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟學</t>
+    <t>经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%92%E7%BA%B3%E6%B3%95</t>
@@ -95,31 +95,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9C%96</t>
   </si>
   <si>
-    <t>柏拉圖</t>
+    <t>柏拉图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E5%A3%AB%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>亞里士多德</t>
+    <t>亚里士多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A6%AC%E6%96%AF%C2%B7%E9%98%BF%E5%A5%8E%E9%82%A3</t>
   </si>
   <si>
-    <t>托馬斯·阿奎那</t>
+    <t>托马斯·阿奎那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A6%AC%E6%96%AF%C2%B7%E9%9C%8D%E5%B8%83%E6%96%AF</t>
   </si>
   <si>
-    <t>托馬斯·霍布斯</t>
+    <t>托马斯·霍布斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%B4%9B%E5%85%8B</t>
   </si>
   <si>
-    <t>約翰·洛克</t>
+    <t>约翰·洛克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E9%87%8C%E7%B1%B3%C2%B7%E8%BE%B9%E6%B2%81</t>
@@ -131,19 +131,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%C2%B7%E6%96%AF%E5%AF%86</t>
   </si>
   <si>
-    <t>亞當·斯密</t>
+    <t>亚当·斯密</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E6%9D%8E%E5%98%89%E5%9C%96</t>
   </si>
   <si>
-    <t>大衛·李嘉圖</t>
+    <t>大卫·李嘉图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E8%A5%BF%E6%96%AF%C2%B7%E6%89%98%E5%85%8B%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>亞歷西斯·托克維爾</t>
+    <t>亚历西斯·托克维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%AF%86%E5%B0%94</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%A6%AE%C2%B7%E6%B4%AA%E5%A0%A1</t>
   </si>
   <si>
-    <t>威廉·馮·洪堡</t>
+    <t>威廉·冯·洪堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%A5%BF%E9%97%A8</t>
@@ -173,19 +173,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E7%BE%85%E7%88%BE%E6%96%AF</t>
   </si>
   <si>
-    <t>約翰·羅爾斯</t>
+    <t>约翰·罗尔斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E8%AB%BE%E9%BD%8A%E5%85%8B</t>
   </si>
   <si>
-    <t>羅伯特·諾齊克</t>
+    <t>罗伯特·诺齐克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%89%B9%E8%98%AD%C2%B7%E7%BE%85%E7%B4%A0</t>
   </si>
   <si>
-    <t>伯特蘭·羅素</t>
+    <t>伯特兰·罗素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E6%B3%A2%E6%99%AE%E5%B0%94</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E7%B4%8D%E5%BE%B7%C2%B7%E5%BE%B7%E6%B2%83%E9%87%91</t>
   </si>
   <si>
-    <t>羅納德·德沃金</t>
+    <t>罗纳德·德沃金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/H%C2%B7L%C2%B7A%C2%B7%E5%93%88%E7%89%B9</t>
@@ -215,9 +215,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
   </si>
   <si>
-    <t>英国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%A6%E5%AE%B6</t>
   </si>
   <si>
@@ -245,37 +242,34 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9F%E5%88%A9%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>功利主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%A7%86%E6%96%AF%C2%B7%E5%AF%86%E7%88%BE</t>
   </si>
   <si>
-    <t>傑姆斯·密爾</t>
+    <t>杰姆斯·密尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>蘇格蘭</t>
+    <t>苏格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E4%B8%81%E5%A0%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>愛丁堡大學</t>
+    <t>爱丁堡大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%95%99%E5%A3%AB</t>
   </si>
   <si>
-    <t>傳教士</t>
+    <t>传教士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E6%96%87</t>
   </si>
   <si>
-    <t>希臘文</t>
+    <t>希腊文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E6%96%87</t>
@@ -287,19 +281,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E6%95%B8</t>
   </si>
   <si>
-    <t>代數</t>
+    <t>代数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E4%BD%95</t>
   </si>
   <si>
-    <t>幾何</t>
+    <t>几何</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%9D%E6%A0%BC%E9%BB%A8</t>
   </si>
   <si>
-    <t>輝格黨</t>
+    <t>辉格党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%88%A9%E5%85%9A</t>
@@ -311,13 +305,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%B0%E5%BA%A6%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>東印度公司</t>
+    <t>东印度公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E6%BB%8B%E8%8F%AF%E6%96%AF</t>
   </si>
   <si>
-    <t>華滋華斯</t>
+    <t>华滋华斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%BC%AA%E5%B0%94%C2%B7%E6%B3%B0%E5%8B%92%C2%B7%E6%9F%AF%E5%8B%92%E5%BE%8B%E6%B2%BB</t>
@@ -353,37 +347,34 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會主義</t>
+    <t>社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%96%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>論自由</t>
+    <t>论自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%88%E7%9B%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>效益主義</t>
+    <t>效益主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
-    <t>伦理学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E6%8B%89%E5%BA%95</t>
   </si>
   <si>
-    <t>蘇格拉底</t>
+    <t>苏格拉底</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由主義</t>
+    <t>自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1</t>
@@ -401,19 +392,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>經濟自由主義</t>
+    <t>经济自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>自由貿易</t>
+    <t>自由贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>個人主義</t>
+    <t>个人主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%94%BE%E4%BB%BB</t>
@@ -443,7 +434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>市場經濟</t>
+    <t>市场经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E7%A4%BE%E4%BC%9A</t>
@@ -455,55 +446,52 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>人民主權</t>
+    <t>人民主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>權利</t>
+    <t>权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%95%99%E5%88%86%E9%9B%A2</t>
   </si>
   <si>
-    <t>政教分離</t>
+    <t>政教分离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府自由主義</t>
+    <t>无政府自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>古典自由主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>保守自由主義</t>
+    <t>保守自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志主義</t>
+    <t>自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民族自由主義</t>
+    <t>民族自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新自由主義</t>
+    <t>新自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%80%E8%BF%9B%E4%B8%BB%E4%B9%89</t>
@@ -521,13 +509,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%91%AA%E6%96%AF%C2%B7%E5%82%91%E4%BD%9B%E9%81%9C</t>
   </si>
   <si>
-    <t>湯瑪斯·傑佛遜</t>
+    <t>汤玛斯·杰佛逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%91%AA%E6%96%AF%C2%B7%E6%BD%98%E6%81%A9</t>
   </si>
   <si>
-    <t>湯瑪斯·潘恩</t>
+    <t>汤玛斯·潘恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8D%AB%C2%B7%E4%BC%91%E8%B0%9F</t>
@@ -539,13 +527,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%BE%B7%E6%96%AF%E9%B3%A9</t>
   </si>
   <si>
-    <t>孟德斯鳩</t>
+    <t>孟德斯鸠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9B%BC%E5%8A%AA%E7%88%BE%C2%B7%E5%BA%B7%E5%BE%B7</t>
   </si>
   <si>
-    <t>伊曼努爾·康德</t>
+    <t>伊曼努尔·康德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E9%A9%AC%E5%B0%94%E8%90%A8%E6%96%AF</t>
@@ -581,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E7%B6%AD%E5%B8%8C%C2%B7%E9%A6%AE%C2%B7%E7%B1%B3%E5%A1%9E%E6%96%AF</t>
   </si>
   <si>
-    <t>路德維希·馮·米塞斯</t>
+    <t>路德维希·冯·米塞斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%B5%9B%E4%BA%9A%C2%B7%E4%BC%AF%E6%9E%97</t>
@@ -617,19 +605,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%87%AA%E7%94%B1%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國際自由聯盟</t>
+    <t>国际自由联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E6%94%B9%E9%9D%A9%E9%BB%A8</t>
   </si>
   <si>
-    <t>歐洲自由民主改革黨</t>
+    <t>欧洲自由民主改革党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐洲自由民主聯盟</t>
+    <t>欧洲自由民主联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Liberalism</t>
@@ -641,15 +629,9 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%BA%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>论自由</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>自由主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%A5%E5%B0%94%E9%A1%BF</t>
   </si>
   <si>
@@ -677,9 +659,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9A%B4%E5%BE%A9</t>
   </si>
   <si>
-    <t>嚴復</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%BB%E8%BE%91</t>
   </si>
   <si>
@@ -713,31 +692,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E6%94%BF%E6%B2%BB%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>國立政治大學</t>
+    <t>国立政治大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>科學哲學</t>
+    <t>科学哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E5%88%86%E6%9E%90</t>
   </si>
   <si>
-    <t>哲學分析</t>
+    <t>哲学分析</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%9E%90-%E7%B6%9C%E5%90%88%E5%8D%80%E5%88%A5</t>
   </si>
   <si>
-    <t>分析-綜合區別</t>
+    <t>分析-综合区别</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E9%A9%97</t>
   </si>
   <si>
-    <t>先驗</t>
+    <t>先验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E6%9E%9C%E5%85%B3%E7%B3%BB</t>
@@ -773,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8B%E5%AF%A6</t>
   </si>
   <si>
-    <t>事實</t>
+    <t>事实</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E8%AF%81%E4%BC%AA%E6%80%A7</t>
@@ -785,7 +764,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%91%E5%80%91%E7%8F%BE%E5%9C%A8%E4%B8%8D%E7%9F%A5%E9%81%93%EF%BC%8C%E5%B0%87%E4%BE%86%E4%B9%9F%E4%B8%8D%E7%9F%A5%E9%81%93</t>
   </si>
   <si>
-    <t>我們現在不知道，將來也不知道</t>
+    <t>我们现在不知道，将来也不知道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%92%E7%BA%B3%E6%8E%A8%E7%90%86</t>
@@ -821,7 +800,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%A7%80%E6%80%A7</t>
   </si>
   <si>
-    <t>客觀性</t>
+    <t>客观性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%82%E5%AF%9F</t>
@@ -869,13 +848,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%B8%AC%E8%A9%A6%E6%80%A7</t>
   </si>
   <si>
-    <t>可測試性</t>
+    <t>可测试性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E6%93%87%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>選擇理論</t>
+    <t>选择理论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Confirmation_holism</t>
@@ -887,7 +866,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E7%90%86%E8%9E%8D%E8%B2%AB%E8%AB%96</t>
   </si>
   <si>
-    <t>真理融貫論</t>
+    <t>真理融贯论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Contextualism</t>
@@ -923,13 +902,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E5%AE%9A%E8%AB%96</t>
   </si>
   <si>
-    <t>決定論</t>
+    <t>决定论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E8%AC%AC%E8%AB%96</t>
   </si>
   <si>
-    <t>可謬論</t>
+    <t>可谬论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Foundationalism</t>
@@ -953,7 +932,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%85%B7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>工具主義</t>
+    <t>工具主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E7%94%A8%E4%B8%BB%E4%B9%89</t>
@@ -971,9 +950,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>经验主义</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Received_view_of_theories</t>
   </si>
   <si>
@@ -989,7 +965,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%AF%A6%E5%9C%A8%E8%AB%96</t>
   </si>
   <si>
-    <t>科學實在論</t>
+    <t>科学实在论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Anti-realism</t>
@@ -1019,19 +995,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%87%E8%AE%8A%E8%AB%96</t>
   </si>
   <si>
-    <t>均變論</t>
+    <t>均变论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%BB%E5%8A%9B%E8%AB%96</t>
   </si>
   <si>
-    <t>活力論</t>
+    <t>活力论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E5%AD%B8</t>
   </si>
   <si>
-    <t>知識學</t>
+    <t>知识学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_and_philosophy_of_science</t>
@@ -1067,7 +1043,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物學哲學</t>
+    <t>生物学哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E6%80%9D%E6%83%B3%E5%8F%B2</t>
@@ -1079,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>環境哲學</t>
+    <t>环境哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Philosophy_of_space_and_time</t>
@@ -1115,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%B7%A5%E6%99%BA%E8%83%BD%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>人工智能哲學</t>
+    <t>人工智能哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Philosophy_of_computer_science</t>
@@ -1175,15 +1151,9 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9B%BE</t>
   </si>
   <si>
-    <t>柏拉图</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E9%87%8C%E5%A3%AB%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>亚里士多德</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%A3%81%E9%B8%A0%E9%B2%81</t>
   </si>
   <si>
@@ -1193,7 +1163,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A4%9A%E4%BA%9E%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>斯多亞學派</t>
+    <t>斯多亚学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%BB%B4%E5%85%8B%E5%A4%9A%E7%9A%84%E4%BC%91</t>
@@ -1211,7 +1181,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%AC%C2%B7%E9%AD%AF%E4%B8%96%E5%BE%B7</t>
   </si>
   <si>
-    <t>伊本·魯世德</t>
+    <t>伊本·鲁世德</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dominicus_Gundissalinus</t>
@@ -1259,9 +1229,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E9%9C%8D%E5%B8%83%E6%96%AF</t>
   </si>
   <si>
-    <t>托马斯·霍布斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%90%A8%E5%85%8B%C2%B7%E7%89%9B%E9%A1%BF</t>
   </si>
   <si>
@@ -1271,9 +1238,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9B%BC%E5%8A%AA%E5%B0%94%C2%B7%E5%BA%B7%E5%BE%B7</t>
   </si>
   <si>
-    <t>伊曼努尔·康德</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E8%B0%A2%E6%9E%97</t>
   </si>
   <si>
@@ -1283,7 +1247,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E7%B6%AD%E8%B5%AB%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>威廉·維赫維爾</t>
+    <t>威廉·维赫维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E6%96%AF%E5%AE%BE%E5%A1%9E</t>
@@ -1325,7 +1289,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E9%81%93%E5%A4%AB%C2%B7%E6%96%AF%E5%9D%A6%E7%B4%8D</t>
   </si>
   <si>
-    <t>魯道夫·斯坦納</t>
+    <t>鲁道夫·斯坦纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E7%9A%AE%E5%B0%94%E9%80%8A</t>
@@ -1361,21 +1325,18 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%9E%90%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>分析哲學</t>
+    <t>分析哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E8%AB%BE%E6%80%9D%C2%B7%E6%87%B7%E7%89%B9%E9%BB%91%E5%BE%B7</t>
   </si>
   <si>
-    <t>阿爾弗雷德·諾思·懷特黑德</t>
+    <t>阿尔弗雷德·诺思·怀特黑德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%89%B9%E5%85%B0%C2%B7%E7%BD%97%E7%B4%A0</t>
   </si>
   <si>
-    <t>伯特兰·罗素</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Carl_Gustav_Hempel</t>
   </si>
   <si>
@@ -1391,7 +1352,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%96%C2%B7%E7%B4%90%E6%8B%89%E7%89%B9</t>
   </si>
   <si>
-    <t>奧圖·紐拉特</t>
+    <t>奥图·纽拉特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B2%81%E9%81%93%E5%A4%AB%C2%B7%E5%8D%A1%E5%B0%94%E7%BA%B3%E6%99%AE</t>
@@ -1415,13 +1376,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E7%88%BE%C2%B7%E4%B8%B9%E5%B0%BC%E7%89%B9</t>
   </si>
   <si>
-    <t>丹尼爾·丹尼特</t>
+    <t>丹尼尔·丹尼特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1439,7 +1400,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1457,7 +1418,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1475,13 +1436,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2807,7 +2768,7 @@
         <v>65</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
         <v>3</v>
@@ -2833,10 +2794,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>3</v>
@@ -2862,10 +2823,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>4</v>
@@ -2891,10 +2852,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2920,10 +2881,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>5</v>
@@ -2949,10 +2910,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="G38" t="n">
         <v>6</v>
@@ -2978,10 +2939,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3007,10 +2968,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3036,10 +2997,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3065,10 +3026,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -3123,10 +3084,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3152,10 +3113,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3181,10 +3142,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3210,10 +3171,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3239,10 +3200,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3268,10 +3229,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3297,10 +3258,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -3326,10 +3287,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3355,10 +3316,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3384,10 +3345,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -3413,10 +3374,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3442,10 +3403,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3471,10 +3432,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -3500,10 +3461,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -3529,10 +3490,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -3558,10 +3519,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>5</v>
@@ -3587,10 +3548,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3616,10 +3577,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3645,10 +3606,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G62" t="n">
         <v>19</v>
@@ -3674,10 +3635,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3703,10 +3664,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -3732,10 +3693,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3761,10 +3722,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3790,10 +3751,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3819,10 +3780,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3848,10 +3809,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3877,10 +3838,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3906,10 +3867,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3935,10 +3896,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3964,10 +3925,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3993,10 +3954,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4022,10 +3983,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4051,10 +4012,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4080,10 +4041,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4109,10 +4070,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4138,10 +4099,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>71</v>
       </c>
       <c r="G79" t="n">
         <v>5</v>
@@ -4167,10 +4128,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4196,10 +4157,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4225,10 +4186,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -4254,10 +4215,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4283,10 +4244,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4312,10 +4273,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4341,10 +4302,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4370,10 +4331,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4399,10 +4360,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4428,10 +4389,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4457,10 +4418,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4515,10 +4476,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4573,10 +4534,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F94" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4602,10 +4563,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F95" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4631,10 +4592,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F96" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4660,10 +4621,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F97" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4689,10 +4650,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F98" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4718,10 +4679,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F99" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4747,10 +4708,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F100" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4776,10 +4737,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F101" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4805,10 +4766,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F102" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4834,10 +4795,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4863,10 +4824,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4892,10 +4853,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4921,10 +4882,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4950,10 +4911,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G107" t="n">
         <v>40</v>
@@ -4979,10 +4940,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>112</v>
       </c>
       <c r="G108" t="n">
         <v>16</v>
@@ -5008,10 +4969,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>119</v>
       </c>
       <c r="G109" t="n">
         <v>6</v>
@@ -5037,10 +4998,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5066,10 +5027,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F111" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -5095,10 +5056,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F112" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G112" t="n">
         <v>5</v>
@@ -5124,10 +5085,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F113" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5153,10 +5114,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F114" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5182,10 +5143,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -5211,10 +5172,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G116" t="n">
         <v>3</v>
@@ -5240,10 +5201,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5269,10 +5230,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F118" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5298,10 +5259,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5327,10 +5288,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5356,10 +5317,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5385,10 +5346,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G122" t="n">
         <v>8</v>
@@ -5414,10 +5375,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G123" t="n">
         <v>4</v>
@@ -5443,10 +5404,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5472,10 +5433,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5501,10 +5462,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5530,10 +5491,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5559,10 +5520,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5588,10 +5549,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5617,10 +5578,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5646,10 +5607,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -5675,10 +5636,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5704,10 +5665,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5733,10 +5694,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5762,10 +5723,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5791,10 +5752,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5820,10 +5781,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5849,10 +5810,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5878,10 +5839,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F139" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5907,10 +5868,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5936,10 +5897,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5965,10 +5926,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5994,10 +5955,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6023,10 +5984,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6052,10 +6013,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6081,10 +6042,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -6110,10 +6071,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6139,10 +6100,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6168,10 +6129,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6197,10 +6158,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6226,10 +6187,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6255,10 +6216,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6284,10 +6245,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6313,10 +6274,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6342,10 +6303,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6371,10 +6332,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6400,10 +6361,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6429,10 +6390,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6458,10 +6419,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6487,10 +6448,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6516,10 +6477,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F161" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6545,10 +6506,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6574,10 +6535,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6603,10 +6564,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>14</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6632,10 +6593,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6661,10 +6622,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F166" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6690,10 +6651,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6719,10 +6680,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F168" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6748,10 +6709,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F169" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6777,10 +6738,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F170" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6806,10 +6767,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F171" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6835,10 +6796,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F172" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6864,10 +6825,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F173" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6893,10 +6854,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F174" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6922,10 +6883,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F175" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6951,10 +6912,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F176" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6980,10 +6941,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F177" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7009,10 +6970,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F178" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7038,10 +6999,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7067,10 +7028,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F180" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7096,10 +7057,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F181" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7125,10 +7086,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7154,10 +7115,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F183" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7183,10 +7144,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F184" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7212,10 +7173,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F185" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -7241,10 +7202,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F186" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7270,10 +7231,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F187" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7299,10 +7260,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F188" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7328,10 +7289,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F189" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7357,10 +7318,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F190" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7386,10 +7347,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F191" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7415,10 +7376,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F192" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7444,10 +7405,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F193" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7473,10 +7434,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F194" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7502,10 +7463,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F195" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7531,10 +7492,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F196" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7560,10 +7521,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F197" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7589,10 +7550,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F198" t="s">
-        <v>386</v>
+        <v>26</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7618,10 +7579,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F199" t="s">
-        <v>388</v>
+        <v>28</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7647,10 +7608,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F200" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7676,10 +7637,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7705,10 +7666,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7734,10 +7695,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="F203" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7763,10 +7724,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="F204" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7792,10 +7753,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="F205" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7821,10 +7782,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7850,10 +7811,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7879,10 +7840,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F208" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7908,10 +7869,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="F209" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7937,10 +7898,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="F210" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7966,10 +7927,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7995,10 +7956,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>32</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8024,10 +7985,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="F213" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8053,10 +8014,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>172</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8082,10 +8043,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="F215" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8111,10 +8072,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="F216" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8140,10 +8101,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="F217" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8169,10 +8130,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F218" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8198,10 +8159,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F219" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8227,10 +8188,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F220" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8256,10 +8217,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="F221" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8285,10 +8246,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="F222" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8314,10 +8275,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="F223" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8343,10 +8304,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="F224" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8401,10 +8362,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="F226" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8430,10 +8391,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F227" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8459,10 +8420,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="F228" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8488,10 +8449,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="F229" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8517,10 +8478,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="F230" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8546,10 +8507,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="F231" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8575,10 +8536,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="F232" t="s">
-        <v>452</v>
+        <v>56</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8604,10 +8565,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="F233" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8633,10 +8594,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="F234" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8662,10 +8623,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="F235" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8691,10 +8652,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="F236" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8720,10 +8681,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="F237" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8749,10 +8710,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="F238" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8778,10 +8739,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="F239" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8807,10 +8768,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="F240" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="G240" t="n">
         <v>3</v>
@@ -8836,10 +8797,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="F241" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8865,10 +8826,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="F242" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8894,10 +8855,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="F243" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8923,10 +8884,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="F244" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8952,10 +8913,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="F245" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -8981,10 +8942,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="F246" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9010,10 +8971,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="F247" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9039,10 +9000,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="F248" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9068,10 +9029,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="F249" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9097,10 +9058,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="F250" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9126,10 +9087,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="F251" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9155,10 +9116,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="F252" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9184,10 +9145,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="F253" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="G253" t="n">
         <v>7</v>
@@ -9213,10 +9174,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="F254" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9242,10 +9203,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="F255" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="G255" t="n">
         <v>2</v>
